--- a/Worksheet/Content/Template/cuocoto/theotongculy.xlsx
+++ b/Worksheet/Content/Template/cuocoto/theotongculy.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="74">
   <si>
     <t>BẢNG TÍNH CƯỚC VẬN CHUYỂN VẬT LIỆU BẰNG Ô TÔ</t>
   </si>
@@ -485,14 +485,14 @@
     <xf numFmtId="166" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -792,854 +792,835 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.21875" style="1" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="9.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="10.21875" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.109375" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="9.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="10.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.109375" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="U1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="58" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="T2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="V2" s="59" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="T3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="V3" s="59" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="4" t="s">
+    <row r="1" spans="1:24" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="57" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C5" s="2"/>
-      <c r="X5" s="4" t="s">
+      <c r="X4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="W5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="X5" s="6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C6" s="2"/>
-      <c r="X6" s="4" t="s">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="W6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Y6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57" t="s">
+      <c r="X6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="B7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="D7" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="E7" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="F7" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="57" t="s">
+      <c r="G7" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="57" t="s">
+      <c r="H7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="57" t="s">
+      <c r="I7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57" t="s">
+      <c r="J7" s="59"/>
+      <c r="K7" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57" t="s">
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57" t="s">
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="57" t="s">
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="V7" s="57" t="s">
+      <c r="U7" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="57"/>
-      <c r="X7" s="57" t="s">
+      <c r="V7" s="59"/>
+      <c r="W7" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="57" t="s">
+      <c r="X7" s="59" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
+    <row r="8" spans="1:24" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="59"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="T8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="U8" s="57"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="V8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="W8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="W8" s="59"/>
+      <c r="X8" s="59"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="11">
+      <c r="E9" s="11">
         <v>1.45</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="13">
-        <v>1</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="11" t="s">
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="14">
-        <v>1</v>
-      </c>
-      <c r="L9" s="12" t="s">
+      <c r="J9" s="14">
+        <v>1</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>37</v>
       </c>
+      <c r="L9" s="11">
+        <v>1</v>
+      </c>
       <c r="M9" s="11">
-        <v>1</v>
-      </c>
-      <c r="N9" s="11">
-        <f>SUM(M9:M11)</f>
+        <f>SUM(L9:L11)</f>
         <v>5</v>
       </c>
-      <c r="O9" s="15">
+      <c r="N9" s="15">
         <v>2984</v>
       </c>
+      <c r="O9" s="16">
+        <f>X6*E9*G9*J9*L9*N9</f>
+        <v>4326.8</v>
+      </c>
       <c r="P9" s="16">
-        <f>Y6*F9*H9*K9*M9*O9</f>
-        <v>4326.8</v>
-      </c>
-      <c r="Q9" s="16">
-        <f>P9/(1+Y5)</f>
+        <f>O9/(1+X5)</f>
         <v>3933.4545454545455</v>
       </c>
-      <c r="R9" s="9">
-        <v>0</v>
-      </c>
-      <c r="S9" s="16">
-        <v>0</v>
-      </c>
-      <c r="T9" s="11">
-        <f>(Y4*R9+S9)*F9</f>
-        <v>0</v>
-      </c>
-      <c r="U9" s="12">
+      <c r="Q9" s="9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="16">
+        <v>0</v>
+      </c>
+      <c r="S9" s="11">
+        <f>(X4*Q9+R9)*E9</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="12">
         <v>389809</v>
       </c>
-      <c r="V9" s="8">
-        <v>0</v>
-      </c>
-      <c r="W9" s="12">
+      <c r="U9" s="8">
+        <v>0</v>
+      </c>
+      <c r="V9" s="12">
+        <v>0</v>
+      </c>
+      <c r="W9" s="17">
         <v>0</v>
       </c>
       <c r="X9" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="17">
-        <f>SUM(Q9:Q11)+SUM(T9:T11)+SUM(X9:X11)</f>
+        <f>SUM(P9:P11)+SUM(S9:S11)+SUM(W9:W11)</f>
         <v>28523.345454545452</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20" t="s">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="21" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="24">
-        <v>1</v>
-      </c>
-      <c r="L10" s="22" t="s">
+      <c r="J10" s="24">
+        <v>1</v>
+      </c>
+      <c r="K10" s="22" t="s">
         <v>71</v>
       </c>
+      <c r="L10" s="21">
+        <v>2</v>
+      </c>
       <c r="M10" s="21">
-        <v>2</v>
-      </c>
-      <c r="N10" s="21">
-        <f>SUM(M9:M11)</f>
+        <f>SUM(L9:L11)</f>
         <v>5</v>
       </c>
-      <c r="O10" s="25">
+      <c r="N10" s="25">
         <v>3164</v>
       </c>
+      <c r="O10" s="26">
+        <f>X6*E9*G9*J10*L10*N10</f>
+        <v>9175.6</v>
+      </c>
       <c r="P10" s="26">
-        <f>Y6*F9*H9*K10*M10*O10</f>
-        <v>9175.6</v>
-      </c>
-      <c r="Q10" s="26">
-        <f>P10/(1+Y5)</f>
+        <f>O10/(1+X5)</f>
         <v>8341.454545454546</v>
       </c>
-      <c r="R10" s="19">
-        <v>0</v>
-      </c>
-      <c r="S10" s="26">
-        <v>0</v>
-      </c>
-      <c r="T10" s="21">
-        <f>(Y4*R10+S10)*F9</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="22">
+      <c r="Q10" s="19">
+        <v>0</v>
+      </c>
+      <c r="R10" s="26">
+        <v>0</v>
+      </c>
+      <c r="S10" s="21">
+        <f>(X4*Q10+R10)*E9</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="22">
         <v>389809</v>
       </c>
-      <c r="V10" s="18">
-        <v>0</v>
-      </c>
-      <c r="W10" s="22">
-        <v>0</v>
-      </c>
-      <c r="X10" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="27"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20" t="s">
+      <c r="U10" s="18">
+        <v>0</v>
+      </c>
+      <c r="V10" s="22">
+        <v>0</v>
+      </c>
+      <c r="W10" s="27">
+        <v>0</v>
+      </c>
+      <c r="X10" s="27"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="21" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="24">
+      <c r="J11" s="24">
         <v>1.2</v>
       </c>
-      <c r="L11" s="22" t="s">
+      <c r="K11" s="22" t="s">
         <v>73</v>
       </c>
+      <c r="L11" s="21">
+        <v>2</v>
+      </c>
       <c r="M11" s="21">
-        <v>2</v>
-      </c>
-      <c r="N11" s="21">
-        <f>SUM(M9:M11)</f>
+        <f>SUM(L9:L11)</f>
         <v>5</v>
       </c>
-      <c r="O11" s="25">
+      <c r="N11" s="25">
         <v>5136</v>
       </c>
+      <c r="O11" s="26">
+        <f>X6*E9*G9*J11*L11*N11</f>
+        <v>17873.28</v>
+      </c>
       <c r="P11" s="26">
-        <f>Y6*F9*H9*K11*M11*O11</f>
-        <v>17873.28</v>
-      </c>
-      <c r="Q11" s="26">
-        <f>P11/(1+Y5)</f>
+        <f>O11/(1+X5)</f>
         <v>16248.436363636361</v>
       </c>
-      <c r="R11" s="19">
-        <v>0</v>
-      </c>
-      <c r="S11" s="26">
-        <v>0</v>
-      </c>
-      <c r="T11" s="21">
-        <f>(Y4*R11+S11)*F9</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="22">
+      <c r="Q11" s="19">
+        <v>0</v>
+      </c>
+      <c r="R11" s="26">
+        <v>0</v>
+      </c>
+      <c r="S11" s="21">
+        <f>(X4*Q11+R11)*E9</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="22">
         <v>389809</v>
       </c>
-      <c r="V11" s="18">
-        <v>0</v>
-      </c>
-      <c r="W11" s="22">
-        <v>0</v>
-      </c>
-      <c r="X11" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="27"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19">
-        <v>2</v>
-      </c>
-      <c r="C12" s="20" t="s">
+      <c r="U11" s="18">
+        <v>0</v>
+      </c>
+      <c r="V11" s="22">
+        <v>0</v>
+      </c>
+      <c r="W11" s="27">
+        <v>0</v>
+      </c>
+      <c r="X11" s="27"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>2</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="C12" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="D12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="21">
+      <c r="E12" s="21">
         <v>1.6</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="F12" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="23">
-        <v>1</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="21" t="s">
+      <c r="G12" s="23">
+        <v>1</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="24">
-        <v>1</v>
-      </c>
-      <c r="L12" s="22" t="s">
+      <c r="J12" s="24">
+        <v>1</v>
+      </c>
+      <c r="K12" s="22" t="s">
         <v>37</v>
       </c>
+      <c r="L12" s="21">
+        <v>1</v>
+      </c>
       <c r="M12" s="21">
-        <v>1</v>
-      </c>
-      <c r="N12" s="21">
-        <f t="shared" ref="N12:N14" si="0">SUM(M12:M12)</f>
-        <v>1</v>
-      </c>
-      <c r="O12" s="25">
+        <f t="shared" ref="M12:M14" si="0">SUM(L12:L12)</f>
+        <v>1</v>
+      </c>
+      <c r="N12" s="25">
+        <v>0</v>
+      </c>
+      <c r="O12" s="26">
+        <f>X6*E12*G12*J12*L12*N12</f>
         <v>0</v>
       </c>
       <c r="P12" s="26">
-        <f>Y6*F12*H12*K12*M12*O12</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="26">
-        <f>P12/(1+Y5)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="19">
-        <v>0</v>
-      </c>
-      <c r="S12" s="26">
-        <v>0</v>
-      </c>
-      <c r="T12" s="21">
-        <f>(Y4*R12+S12)*F12</f>
-        <v>0</v>
-      </c>
-      <c r="U12" s="22">
-        <v>0</v>
-      </c>
-      <c r="V12" s="18">
-        <v>0</v>
-      </c>
-      <c r="W12" s="22">
+        <f>O12/(1+X5)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>0</v>
+      </c>
+      <c r="R12" s="26">
+        <v>0</v>
+      </c>
+      <c r="S12" s="21">
+        <f>(X4*Q12+R12)*E12</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="22">
+        <v>0</v>
+      </c>
+      <c r="U12" s="18">
+        <v>0</v>
+      </c>
+      <c r="V12" s="22">
+        <v>0</v>
+      </c>
+      <c r="W12" s="27">
         <v>0</v>
       </c>
       <c r="X12" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="27">
-        <f t="shared" ref="Y12:Y14" si="1">SUM(Q12:Q12)+SUM(T12:T12)+SUM(X12:X12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19">
+        <f t="shared" ref="X12:X14" si="1">SUM(P12:P12)+SUM(S12:S12)+SUM(W12:W12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
         <v>3</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="B13" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="C13" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="D13" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="21">
-        <v>0</v>
-      </c>
-      <c r="G13" s="22" t="s">
+      <c r="E13" s="21">
+        <v>0</v>
+      </c>
+      <c r="F13" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="23">
-        <v>1</v>
-      </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="21" t="s">
+      <c r="G13" s="23">
+        <v>1</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="24">
-        <v>1</v>
-      </c>
-      <c r="L13" s="22" t="s">
+      <c r="J13" s="24">
+        <v>1</v>
+      </c>
+      <c r="K13" s="22" t="s">
         <v>37</v>
       </c>
+      <c r="L13" s="21">
+        <v>1</v>
+      </c>
       <c r="M13" s="21">
-        <v>1</v>
-      </c>
-      <c r="N13" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O13" s="25">
+      <c r="N13" s="25">
+        <v>0</v>
+      </c>
+      <c r="O13" s="26">
+        <f>X6*E13*G13*J13*L13*N13</f>
         <v>0</v>
       </c>
       <c r="P13" s="26">
-        <f>Y6*F13*H13*K13*M13*O13</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="26">
-        <f>P13/(1+Y5)</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="19">
-        <v>0</v>
-      </c>
-      <c r="S13" s="26">
-        <v>0</v>
-      </c>
-      <c r="T13" s="21">
-        <f>(Y4*R13+S13)*F13</f>
-        <v>0</v>
-      </c>
-      <c r="U13" s="22">
-        <v>0</v>
-      </c>
-      <c r="V13" s="18">
-        <v>0</v>
-      </c>
-      <c r="W13" s="22">
+        <f>O13/(1+X5)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>0</v>
+      </c>
+      <c r="R13" s="26">
+        <v>0</v>
+      </c>
+      <c r="S13" s="21">
+        <f>(X4*Q13+R13)*E13</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="22">
+        <v>0</v>
+      </c>
+      <c r="U13" s="18">
+        <v>0</v>
+      </c>
+      <c r="V13" s="22">
+        <v>0</v>
+      </c>
+      <c r="W13" s="27">
         <v>0</v>
       </c>
       <c r="X13" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
         <v>4</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="B14" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="C14" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="D14" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="31">
+      <c r="E14" s="31">
         <v>1E-3</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="F14" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="33">
+      <c r="G14" s="33">
         <v>1.3</v>
       </c>
-      <c r="I14" s="32"/>
-      <c r="J14" s="31" t="s">
+      <c r="H14" s="32"/>
+      <c r="I14" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="34">
-        <v>1</v>
-      </c>
-      <c r="L14" s="32" t="s">
+      <c r="J14" s="34">
+        <v>1</v>
+      </c>
+      <c r="K14" s="32" t="s">
         <v>37</v>
       </c>
+      <c r="L14" s="31">
+        <v>1</v>
+      </c>
       <c r="M14" s="31">
-        <v>1</v>
-      </c>
-      <c r="N14" s="31">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O14" s="35">
+      <c r="N14" s="35">
+        <v>0</v>
+      </c>
+      <c r="O14" s="36">
+        <f>X6*E14*G14*J14*L14*N14</f>
         <v>0</v>
       </c>
       <c r="P14" s="36">
-        <f>Y6*F14*H14*K14*M14*O14</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="36">
-        <f>P14/(1+Y5)</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="29">
-        <v>0</v>
-      </c>
-      <c r="S14" s="36">
-        <v>0</v>
-      </c>
-      <c r="T14" s="31">
-        <f>(Y4*R14+S14)*F14</f>
-        <v>0</v>
-      </c>
-      <c r="U14" s="32">
-        <v>0</v>
-      </c>
-      <c r="V14" s="28">
-        <v>0</v>
-      </c>
-      <c r="W14" s="32">
+        <f>O14/(1+X5)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="29">
+        <v>0</v>
+      </c>
+      <c r="R14" s="36">
+        <v>0</v>
+      </c>
+      <c r="S14" s="31">
+        <f>(X4*Q14+R14)*E14</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="32">
+        <v>0</v>
+      </c>
+      <c r="U14" s="28">
+        <v>0</v>
+      </c>
+      <c r="V14" s="32">
+        <v>0</v>
+      </c>
+      <c r="W14" s="37">
         <v>0</v>
       </c>
       <c r="X14" s="37">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:V2"/>
-    <mergeCell ref="A3:V3"/>
+  <mergeCells count="19">
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="A3:U3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:V7"/>
   </mergeCells>
-  <conditionalFormatting sqref="K9:K14">
+  <conditionalFormatting sqref="J9:J14">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M9:M14">
+  <conditionalFormatting sqref="L9:L14">
     <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -1685,207 +1666,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="O1" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="58" t="s">
+      <c r="P1" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="R1" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="T1" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="58" t="s">
+      <c r="U1" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="58" t="s">
+      <c r="V1" s="57" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="T2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="V2" s="59" t="s">
+      <c r="A2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="58" t="s">
         <v>1</v>
       </c>
       <c r="W2" s="3"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="T3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="V3" s="59" t="s">
+      <c r="A3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="58" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1899,61 +1880,61 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="59" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57" t="s">
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
-      <c r="T5" s="57" t="s">
+      <c r="T5" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="U5" s="57" t="s">
+      <c r="U5" s="59" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="60"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
       <c r="I6" s="7" t="s">
         <v>56</v>
       </c>
@@ -1987,8 +1968,8 @@
       <c r="S6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>

--- a/Worksheet/Content/Template/cuocoto/theotongculy.xlsx
+++ b/Worksheet/Content/Template/cuocoto/theotongculy.xlsx
@@ -485,14 +485,14 @@
     <xf numFmtId="166" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -795,7 +795,7 @@
   <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection sqref="A1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -829,197 +829,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="U1" s="57" t="s">
+      <c r="A1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="58" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="T2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" s="58" t="s">
+      <c r="A2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="59" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="T3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="58" t="s">
+      <c r="A3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="59" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1052,72 +1052,72 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="57" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="H7" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59" t="s">
+      <c r="J7" s="57"/>
+      <c r="K7" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59" t="s">
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59" t="s">
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59" t="s">
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="59" t="s">
+      <c r="U7" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59" t="s">
+      <c r="V7" s="57"/>
+      <c r="W7" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="X7" s="59" t="s">
+      <c r="X7" s="57" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="60"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
       <c r="I8" s="7" t="s">
         <v>14</v>
       </c>
@@ -1151,15 +1151,15 @@
       <c r="S8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="T8" s="59"/>
+      <c r="T8" s="57"/>
       <c r="U8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="V8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -1595,14 +1595,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="A3:U3"/>
@@ -1614,6 +1606,14 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="T7:T8"/>
     <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:J14">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
@@ -1666,207 +1666,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="57" t="s">
+      <c r="N1" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="57" t="s">
+      <c r="O1" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="57" t="s">
+      <c r="P1" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="57" t="s">
+      <c r="Q1" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="57" t="s">
+      <c r="R1" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="57" t="s">
+      <c r="S1" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="57" t="s">
+      <c r="T1" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="57" t="s">
+      <c r="U1" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="57" t="s">
+      <c r="V1" s="58" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="T2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="V2" s="58" t="s">
+      <c r="A2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="59" t="s">
         <v>1</v>
       </c>
       <c r="W2" s="3"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="T3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="V3" s="58" t="s">
+      <c r="A3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="59" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1880,61 +1880,61 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="57" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59" t="s">
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
-      <c r="T5" s="59" t="s">
+      <c r="T5" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="U5" s="59" t="s">
+      <c r="U5" s="57" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="60"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
       <c r="I6" s="7" t="s">
         <v>56</v>
       </c>
@@ -1968,8 +1968,8 @@
       <c r="S6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
